--- a/dist/document/dest/2020/10/products/Talroma.xlsx
+++ b/dist/document/dest/2020/10/products/Talroma.xlsx
@@ -421,11 +421,17 @@
       <c r="A2" t="str">
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
+      <c r="B2" t="str">
+        <v>Nguyễn Thy</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Anh</v>
+      </c>
       <c r="D2" t="str">
         <v>Talroma (Tiropramide 100mg)</v>
       </c>
       <c r="E2" s="1">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -433,7 +439,7 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B3" t="str">
-        <v>Nguyễn Thy</v>
+        <v>Phạm Thế</v>
       </c>
       <c r="C3" t="str">
         <v>Anh</v>
@@ -442,7 +448,7 @@
         <v>Talroma (Tiropramide 100mg)</v>
       </c>
       <c r="E3" s="1">
-        <v>21</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="4">
@@ -450,16 +456,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B4" t="str">
-        <v>Phạm Thế</v>
+        <v>Nguyễn Kỳ</v>
       </c>
       <c r="C4" t="str">
-        <v>Anh</v>
+        <v>Chân</v>
       </c>
       <c r="D4" t="str">
         <v>Talroma (Tiropramide 100mg)</v>
       </c>
       <c r="E4" s="1">
-        <v>2133</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -467,16 +473,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B5" t="str">
-        <v>Nguyễn Kỳ</v>
+        <v>Huỳnh Đức Thục</v>
       </c>
       <c r="C5" t="str">
-        <v>Chân</v>
+        <v>Đoan</v>
       </c>
       <c r="D5" t="str">
         <v>Talroma (Tiropramide 100mg)</v>
       </c>
       <c r="E5" s="1">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -484,16 +490,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B6" t="str">
-        <v>Huỳnh Đức Thục</v>
+        <v>Nguyễn Văn</v>
       </c>
       <c r="C6" t="str">
-        <v>Đoan</v>
+        <v>Hiền</v>
       </c>
       <c r="D6" t="str">
         <v>Talroma (Tiropramide 100mg)</v>
       </c>
       <c r="E6" s="1">
-        <v>29</v>
+        <v>7886</v>
       </c>
     </row>
     <row r="7">
@@ -501,16 +507,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B7" t="str">
-        <v>Nguyễn Văn</v>
+        <v>Đỗ Ngọc Anh</v>
       </c>
       <c r="C7" t="str">
-        <v>Hiền</v>
+        <v>Khoa</v>
       </c>
       <c r="D7" t="str">
         <v>Talroma (Tiropramide 100mg)</v>
       </c>
       <c r="E7" s="1">
-        <v>7886</v>
+        <v>670</v>
       </c>
     </row>
     <row r="8">
@@ -518,16 +524,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B8" t="str">
-        <v>Đỗ Ngọc Anh</v>
+        <v>Lê Tuấn</v>
       </c>
       <c r="C8" t="str">
-        <v>Khoa</v>
+        <v>Khuê</v>
       </c>
       <c r="D8" t="str">
         <v>Talroma (Tiropramide 100mg)</v>
       </c>
       <c r="E8" s="1">
-        <v>670</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="9">
@@ -535,16 +541,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B9" t="str">
-        <v>Lê Tuấn</v>
+        <v>Bùi Văn</v>
       </c>
       <c r="C9" t="str">
-        <v>Khuê</v>
+        <v>Kiệt</v>
       </c>
       <c r="D9" t="str">
         <v>Talroma (Tiropramide 100mg)</v>
       </c>
       <c r="E9" s="1">
-        <v>1118</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10">
@@ -552,16 +558,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B10" t="str">
-        <v>Bùi Văn</v>
+        <v>Mai Huỳnh</v>
       </c>
       <c r="C10" t="str">
-        <v>Kiệt</v>
+        <v>Lạc</v>
       </c>
       <c r="D10" t="str">
         <v>Talroma (Tiropramide 100mg)</v>
       </c>
       <c r="E10" s="1">
-        <v>200</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
@@ -569,16 +575,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B11" t="str">
-        <v>Mai Huỳnh</v>
+        <v>Lý Thanh</v>
       </c>
       <c r="C11" t="str">
-        <v>Lạc</v>
+        <v>Lãm</v>
       </c>
       <c r="D11" t="str">
         <v>Talroma (Tiropramide 100mg)</v>
       </c>
       <c r="E11" s="1">
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
@@ -586,16 +592,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B12" t="str">
-        <v>Lý Thanh</v>
+        <v>Huỳnh Trác</v>
       </c>
       <c r="C12" t="str">
-        <v>Lãm</v>
+        <v>Luân</v>
       </c>
       <c r="D12" t="str">
         <v>Talroma (Tiropramide 100mg)</v>
       </c>
       <c r="E12" s="1">
-        <v>120</v>
+        <v>574</v>
       </c>
     </row>
     <row r="13">
@@ -603,16 +609,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B13" t="str">
-        <v>Huỳnh Trác</v>
+        <v>Lê Trọng</v>
       </c>
       <c r="C13" t="str">
-        <v>Luân</v>
+        <v>Quý</v>
       </c>
       <c r="D13" t="str">
         <v>Talroma (Tiropramide 100mg)</v>
       </c>
       <c r="E13" s="1">
-        <v>574</v>
+        <v>726</v>
       </c>
     </row>
     <row r="14">
@@ -620,16 +626,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B14" t="str">
-        <v>Lê Trọng</v>
+        <v>Đặng Bữu</v>
       </c>
       <c r="C14" t="str">
-        <v>Quý</v>
+        <v>Thất</v>
       </c>
       <c r="D14" t="str">
         <v>Talroma (Tiropramide 100mg)</v>
       </c>
       <c r="E14" s="1">
-        <v>726</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15">
@@ -637,16 +643,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B15" t="str">
-        <v>Đặng Bữu</v>
+        <v>Nguyễn Minh</v>
       </c>
       <c r="C15" t="str">
-        <v>Thất</v>
+        <v>Thiền</v>
       </c>
       <c r="D15" t="str">
         <v>Talroma (Tiropramide 100mg)</v>
       </c>
       <c r="E15" s="1">
-        <v>358</v>
+        <v>894</v>
       </c>
     </row>
     <row r="16">
@@ -654,16 +660,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B16" t="str">
-        <v>Nguyễn Minh</v>
+        <v>Nguyễn Linh</v>
       </c>
       <c r="C16" t="str">
-        <v>Thiền</v>
+        <v>Thoại</v>
       </c>
       <c r="D16" t="str">
         <v>Talroma (Tiropramide 100mg)</v>
       </c>
       <c r="E16" s="1">
-        <v>894</v>
+        <v>715</v>
       </c>
     </row>
     <row r="17">
@@ -671,16 +677,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B17" t="str">
-        <v>Nguyễn Linh</v>
+        <v>Phạm Thiện</v>
       </c>
       <c r="C17" t="str">
-        <v>Thoại</v>
+        <v>Thông</v>
       </c>
       <c r="D17" t="str">
         <v>Talroma (Tiropramide 100mg)</v>
       </c>
       <c r="E17" s="1">
-        <v>715</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
@@ -688,16 +694,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B18" t="str">
-        <v>Phạm Thiện</v>
+        <v>Trương Hoàng Anh</v>
       </c>
       <c r="C18" t="str">
-        <v>Thông</v>
+        <v>Thư</v>
       </c>
       <c r="D18" t="str">
         <v>Talroma (Tiropramide 100mg)</v>
       </c>
       <c r="E18" s="1">
-        <v>80</v>
+        <v>486</v>
       </c>
     </row>
     <row r="19">
@@ -705,16 +711,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B19" t="str">
-        <v>Trương Hoàng Anh</v>
+        <v>Lê Đình</v>
       </c>
       <c r="C19" t="str">
-        <v>Thư</v>
+        <v>Tín</v>
       </c>
       <c r="D19" t="str">
         <v>Talroma (Tiropramide 100mg)</v>
       </c>
       <c r="E19" s="1">
-        <v>486</v>
+        <v>14855</v>
       </c>
     </row>
     <row r="20">
@@ -722,16 +728,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B20" t="str">
-        <v>Lê Đình</v>
+        <v>Huỳnh Thắng</v>
       </c>
       <c r="C20" t="str">
-        <v>Tín</v>
+        <v>Toàn</v>
       </c>
       <c r="D20" t="str">
         <v>Talroma (Tiropramide 100mg)</v>
       </c>
       <c r="E20" s="1">
-        <v>14855</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
@@ -739,10 +745,10 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B21" t="str">
-        <v>Huỳnh Thắng</v>
+        <v>Phạm Huỳnh Bảo</v>
       </c>
       <c r="C21" t="str">
-        <v>Toàn</v>
+        <v>Trân</v>
       </c>
       <c r="D21" t="str">
         <v>Talroma (Tiropramide 100mg)</v>
@@ -756,16 +762,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B22" t="str">
-        <v>Phạm Huỳnh Bảo</v>
+        <v>Dương Quang</v>
       </c>
       <c r="C22" t="str">
-        <v>Trân</v>
+        <v>Triết</v>
       </c>
       <c r="D22" t="str">
         <v>Talroma (Tiropramide 100mg)</v>
       </c>
       <c r="E22" s="1">
-        <v>60</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23">
@@ -773,16 +779,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B23" t="str">
-        <v>Dương Quang</v>
+        <v>Phan Anh</v>
       </c>
       <c r="C23" t="str">
-        <v>Triết</v>
+        <v>Tuấn</v>
       </c>
       <c r="D23" t="str">
         <v>Talroma (Tiropramide 100mg)</v>
       </c>
       <c r="E23" s="1">
-        <v>434</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
@@ -790,7 +796,7 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B24" t="str">
-        <v>Phan Anh</v>
+        <v>Trần Anh</v>
       </c>
       <c r="C24" t="str">
         <v>Tuấn</v>
@@ -799,7 +805,7 @@
         <v>Talroma (Tiropramide 100mg)</v>
       </c>
       <c r="E24" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -807,27 +813,21 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B25" t="str">
-        <v>Trần Anh</v>
+        <v>Bùi Quang</v>
       </c>
       <c r="C25" t="str">
-        <v>Tuấn</v>
+        <v>Vinh</v>
       </c>
       <c r="D25" t="str">
         <v>Talroma (Tiropramide 100mg)</v>
       </c>
       <c r="E25" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
         <v>01/09 -&gt; 30/09/2020</v>
-      </c>
-      <c r="B26" t="str">
-        <v>Bùi Quang</v>
-      </c>
-      <c r="C26" t="str">
-        <v>Vinh</v>
       </c>
       <c r="D26" t="str">
         <v>Talroma (Tiropramide 100mg)</v>

--- a/dist/document/dest/2020/10/products/Talroma.xlsx
+++ b/dist/document/dest/2020/10/products/Talroma.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="61">
   <si>
     <t>Công ty TNHH Dược Phẩm Hoàng Trân</t>
   </si>
@@ -19,7 +19,7 @@
     <t>BÁO CÁO TÌNH HÌNH MUA BÁN THUỐC TALROMA</t>
   </si>
   <si>
-    <t>01/09 -&gt; 30/09/2020</t>
+    <t>27/10/2020</t>
   </si>
   <si>
     <t>STT</t>
@@ -37,19 +37,16 @@
     <t>SL</t>
   </si>
   <si>
-    <t>Nguyễn Thy</t>
+    <t>28/10/2020</t>
+  </si>
+  <si>
+    <t>Phạm Thế</t>
   </si>
   <si>
     <t>Anh</t>
   </si>
   <si>
-    <t>Phạm Thế</t>
-  </si>
-  <si>
-    <t>Nguyễn Kỳ</t>
-  </si>
-  <si>
-    <t>Chân</t>
+    <t>23/10/2020</t>
   </si>
   <si>
     <t>Huỳnh Đức Thục</t>
@@ -64,109 +61,127 @@
     <t>Hiền</t>
   </si>
   <si>
+    <t>26/10/2020</t>
+  </si>
+  <si>
+    <t>22/10/2020</t>
+  </si>
+  <si>
     <t>Đỗ Ngọc Anh</t>
   </si>
   <si>
     <t>Khoa</t>
   </si>
   <si>
+    <t>20/10/2020</t>
+  </si>
+  <si>
     <t>Lê Tuấn</t>
   </si>
   <si>
     <t>Khuê</t>
   </si>
   <si>
+    <t>Huỳnh Trác</t>
+  </si>
+  <si>
+    <t>Luân</t>
+  </si>
+  <si>
+    <t>Lê Trọng</t>
+  </si>
+  <si>
+    <t>Quý</t>
+  </si>
+  <si>
+    <t>Đặng Bữu</t>
+  </si>
+  <si>
+    <t>Thất</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh</t>
+  </si>
+  <si>
+    <t>Thiền</t>
+  </si>
+  <si>
+    <t>Nguyễn Linh</t>
+  </si>
+  <si>
+    <t>Thoại</t>
+  </si>
+  <si>
+    <t>Trương Hoàng Anh</t>
+  </si>
+  <si>
+    <t>Thư</t>
+  </si>
+  <si>
+    <t>Lê Đình</t>
+  </si>
+  <si>
+    <t>Tín</t>
+  </si>
+  <si>
+    <t>Huỳnh Thắng</t>
+  </si>
+  <si>
+    <t>Toàn</t>
+  </si>
+  <si>
+    <t>Dương Quang</t>
+  </si>
+  <si>
+    <t>Triết</t>
+  </si>
+  <si>
+    <t>01/10 -&gt; 16/10/2020</t>
+  </si>
+  <si>
+    <t>Đoàn Thị Ngọc</t>
+  </si>
+  <si>
+    <t>Đào</t>
+  </si>
+  <si>
+    <t>16/10/2020</t>
+  </si>
+  <si>
+    <t>19/10/2020</t>
+  </si>
+  <si>
+    <t>21/10/2020</t>
+  </si>
+  <si>
     <t>Bùi Văn</t>
   </si>
   <si>
     <t>Kiệt</t>
   </si>
   <si>
-    <t>Mai Huỳnh</t>
-  </si>
-  <si>
-    <t>Lạc</t>
-  </si>
-  <si>
     <t>Lý Thanh</t>
   </si>
   <si>
     <t>Lãm</t>
   </si>
   <si>
-    <t>Huỳnh Trác</t>
-  </si>
-  <si>
-    <t>Luân</t>
-  </si>
-  <si>
-    <t>Lê Trọng</t>
-  </si>
-  <si>
-    <t>Quý</t>
-  </si>
-  <si>
-    <t>Đặng Bữu</t>
-  </si>
-  <si>
-    <t>Thất</t>
-  </si>
-  <si>
-    <t>Nguyễn Minh</t>
-  </si>
-  <si>
-    <t>Thiền</t>
-  </si>
-  <si>
-    <t>Nguyễn Linh</t>
-  </si>
-  <si>
-    <t>Thoại</t>
-  </si>
-  <si>
     <t>Phạm Thiện</t>
   </si>
   <si>
     <t>Thông</t>
   </si>
   <si>
-    <t>Trương Hoàng Anh</t>
-  </si>
-  <si>
-    <t>Thư</t>
-  </si>
-  <si>
-    <t>Lê Đình</t>
-  </si>
-  <si>
-    <t>Tín</t>
-  </si>
-  <si>
-    <t>Huỳnh Thắng</t>
-  </si>
-  <si>
-    <t>Toàn</t>
-  </si>
-  <si>
     <t>Phạm Huỳnh Bảo</t>
   </si>
   <si>
     <t>Trân</t>
   </si>
   <si>
-    <t>Dương Quang</t>
-  </si>
-  <si>
-    <t>Triết</t>
-  </si>
-  <si>
-    <t>Phan Anh</t>
+    <t>Trần Anh</t>
   </si>
   <si>
     <t>Tuấn</t>
-  </si>
-  <si>
-    <t>Trần Anh</t>
   </si>
   <si>
     <t>Bùi Quang</t>
@@ -621,7 +636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E80"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -681,12 +696,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="E6" s="10">
-        <v>10</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -694,13 +713,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="10">
         <v>21</v>
@@ -711,16 +730,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E8" s="10">
-        <v>2133</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -728,16 +747,16 @@
         <v>4</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="10">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -748,13 +767,13 @@
         <v>2</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" s="10">
-        <v>29</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -762,16 +781,16 @@
         <v>6</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>16</v>
-      </c>
       <c r="E11" s="10">
-        <v>7886</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -779,16 +798,16 @@
         <v>7</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E12" s="10">
-        <v>670</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -796,16 +815,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E13" s="10">
-        <v>1118</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -813,16 +832,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E14" s="10">
-        <v>200</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -830,16 +849,16 @@
         <v>10</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E15" s="10">
-        <v>30</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -847,16 +866,16 @@
         <v>11</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E16" s="10">
-        <v>120</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -867,13 +886,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E17" s="10">
-        <v>574</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -881,16 +900,16 @@
         <v>13</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E18" s="10">
-        <v>726</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -898,16 +917,16 @@
         <v>14</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E19" s="10">
-        <v>358</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -915,16 +934,16 @@
         <v>15</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E20" s="10">
-        <v>894</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -932,16 +951,16 @@
         <v>16</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E21" s="10">
-        <v>715</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -952,13 +971,13 @@
         <v>2</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E22" s="10">
-        <v>80</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -966,16 +985,16 @@
         <v>18</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E23" s="10">
-        <v>486</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -983,16 +1002,16 @@
         <v>19</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E24" s="10">
-        <v>14855</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1000,16 +1019,16 @@
         <v>20</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E25" s="10">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1017,16 +1036,16 @@
         <v>21</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E26" s="10">
-        <v>60</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1034,16 +1053,16 @@
         <v>22</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E27" s="10">
-        <v>434</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1051,16 +1070,16 @@
         <v>23</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E28" s="10">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1071,10 +1090,10 @@
         <v>2</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E29" s="10">
         <v>20</v>
@@ -1085,43 +1104,838 @@
         <v>25</v>
       </c>
       <c r="B30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>26</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="10">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="32" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>27</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="10">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="33" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>28</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C33" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="10">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="34" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>29</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="10">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="35" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>30</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="10">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="36" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>31</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>32</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>33</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>34</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>35</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="10">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="41" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>36</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>37</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="10">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="43" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>38</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="10">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>39</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="10">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="45" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>40</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="10">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>41</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="10">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="47" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>42</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>43</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="10">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="49" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>44</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>45</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>46</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>47</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E52" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <v>48</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>49</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="10">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="55" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <v>50</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" s="10">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <v>51</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
         <v>52</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="B57" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" s="10">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="58" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
         <v>53</v>
       </c>
-      <c r="E30" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" ht="20" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="B58" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" s="10">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
         <v>54</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="11">
-        <v>31563</v>
-      </c>
-    </row>
-    <row r="32" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="B59" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" s="10">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
         <v>55</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="4"/>
+      <c r="B60" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="10">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="61" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
+        <v>56</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" s="10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
+        <v>57</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E62" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
+        <v>58</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63" s="10">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="64" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
+        <v>59</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E64" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
+        <v>60</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E65" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
+        <v>61</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66" s="10">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="67" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
+        <v>62</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E67" s="10">
+        <v>6811</v>
+      </c>
+    </row>
+    <row r="68" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="9">
+        <v>63</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E68" s="10">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="69" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
+        <v>64</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E69" s="10">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="70" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="9">
+        <v>65</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E70" s="10">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="71" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="9">
+        <v>66</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E71" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="9">
+        <v>67</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E72" s="10">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="73" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
+        <v>68</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E73" s="10">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
+        <v>69</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E74" s="10">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="75" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="9">
+        <v>70</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E75" s="10">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="9">
+        <v>71</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E76" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="9">
+        <v>72</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E77" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" ht="20" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="11">
+        <v>23484</v>
+      </c>
+    </row>
+    <row r="79" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A78:D78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
